--- a/class_schedules_fall_2019/EDUCATION (EDUA)- COLLEGE OF ARTS & SCIENCES.xlsx
+++ b/class_schedules_fall_2019/EDUCATION (EDUA)- COLLEGE OF ARTS & SCIENCES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>301</t>
   </si>
@@ -46,13 +46,13 @@
     <t>F</t>
   </si>
   <si>
-    <t>Language Pedagogy</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>TR</t>
+    <t>Language Pedagogy TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading  </t>
+  </si>
+  <si>
+    <t>0300</t>
   </si>
   <si>
     <t>Full</t>
@@ -61,13 +61,16 @@
     <t>Half</t>
   </si>
   <si>
-    <t>0300-0420pm</t>
+    <t>0420pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Tungseth-Faber Kim</t>
+    <t>Tungseth</t>
+  </si>
+  <si>
+    <t>Faber Kim</t>
   </si>
 </sst>
 </file>
@@ -425,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,8 +503,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,8 +541,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -566,6 +578,9 @@
       </c>
       <c r="K4" t="s">
         <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
